--- a/src/test/resources/Documents/18110/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/18110/Actual/JobMaterial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Materialtype</t>
   </si>
@@ -71,25 +71,34 @@
     <t>Sheet</t>
   </si>
   <si>
+    <t>Text  2p</t>
+  </si>
+  <si>
+    <t>Proof Approval</t>
+  </si>
+  <si>
+    <t>Rolland HiTech FSC 70 # 12 x 18" 370 ppi-STL</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXSHT -     ***    HC -  STOCK NOT SELECTED    ***</t>
+  </si>
+  <si>
     <t>Front Cover   2p</t>
   </si>
   <si>
-    <t>Proof Approval</t>
-  </si>
-  <si>
     <t>Carolina C1S Cover Non FSC 10 pt 18 x 12" 200 ppi-STL</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXSHT -     ***    HC -  STOCK NOT SELECTED    ***</t>
-  </si>
-  <si>
-    <t>Text  2p</t>
-  </si>
-  <si>
-    <t>Rolland HiTech FSC 70 # 12 x 18" 370 ppi-STL</t>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>Spiral</t>
+  </si>
+  <si>
+    <t>Carolina C1S Cover Non FSC 10 pt 8.5 x 11" 200 ppi-STL</t>
   </si>
 </sst>
 </file>
@@ -97,13 +106,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="34">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -251,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -278,6 +327,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -400,6 +457,32 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="29">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="31">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="32">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="33">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
